--- a/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
@@ -17,6 +17,8 @@
     <sheet name="outputs7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="outputs8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="outputs" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="outputs9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="outputs10" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1099,112 +1101,148 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>پاسخ سیستم</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>پاسخ دستی کارشناس</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>clinical</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>religious_ambivalence</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>religious_adherence</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>religious_disobedience</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>researchical</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>religious_ambivalence</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>religious_adherence</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>religious_disobedience</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>clinical_raw</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>researchical_raw</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>89</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
@@ -19,6 +19,7 @@
     <sheet name="outputs" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="outputs9" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="outputs10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="outputs11" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1247,6 +1248,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">

--- a/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
+++ b/scoring/forms/JRAQ/JRAQ93_test_1.xlsx
@@ -8,18 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="outputs1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="outputs2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="outputs3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="outputs4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="outputs5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="outputs6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="outputs7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="outputs8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="outputs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="outputs9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="outputs10" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="outputs11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="outputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="outputs1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -1087,21 +1077,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15" customHeight="1" s="2">
       <c r="B1" s="3" t="inlineStr">
         <is>
           <t>پاسخ سیستم</t>
@@ -1113,14 +1103,14 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>clinical</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>religious_ambivalence</t>
@@ -1130,7 +1120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>religious_adherence</t>
@@ -1140,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>religious_disobedience</t>
@@ -1150,14 +1140,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15" customHeight="1" s="2">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>researchical</t>
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15" customHeight="1" s="2">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>religious_ambivalence</t>
@@ -1167,7 +1157,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15" customHeight="1" s="2">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>religious_adherence</t>
@@ -1177,7 +1167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15" customHeight="1" s="2">
       <c r="A9" s="3" t="inlineStr">
         <is>
           <t>religious_disobedience</t>
@@ -1187,32 +1177,34 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15" customHeight="1" s="2">
       <c r="A10" s="3" t="inlineStr">
         <is>
           <t>clinical_raw</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" s="2">
       <c r="A11" s="3" t="inlineStr">
         <is>
           <t>researchical_raw</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1228,200 +1220,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.40234375" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-</worksheet>
 </file>